--- a/outputs/raw/RFQ_Analysis_by_Factory.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Factory.xlsx
@@ -528,7 +528,7 @@
         <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
     </row>
     <row r="4">
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>305394.06</v>
+        <v>194409.25</v>
       </c>
     </row>
     <row r="10">
@@ -780,7 +780,7 @@
         <v>1.667</v>
       </c>
       <c r="H12" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
     </row>
     <row r="13">

--- a/outputs/raw/RFQ_Analysis_by_Factory.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Factory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         <v>2020</v>
       </c>
       <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.538</v>
       </c>
       <c r="G2" t="n">
-        <v>0.571</v>
+        <v>0.591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>369441.99</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         <v>2021</v>
       </c>
       <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.286</v>
+        <v>0.417</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>0.375</v>
       </c>
       <c r="H3" t="n">
-        <v>110984.81</v>
+        <v>264027.33</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         <v>2022</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>473364.86</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>312191.09</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         <v>2024</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.889</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
-        <v>44640.405</v>
+        <v>349286.5</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59817.65</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>2020</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>0.474</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>219463.35</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         <v>2021</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.375</v>
+        <v>0.438</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
-        <v>194409.25</v>
+        <v>396800.07</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         <v>2022</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.727</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>341967.83</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         <v>2023</v>
       </c>
       <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
         <v>6</v>
       </c>
-      <c r="D11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
       <c r="F11" t="n">
-        <v>0.154</v>
+        <v>0.75</v>
       </c>
       <c r="G11" t="n">
-        <v>2.167</v>
+        <v>0.364</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>367474.37</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         <v>2024</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0.625</v>
       </c>
       <c r="G12" t="n">
-        <v>1.667</v>
+        <v>0.276</v>
       </c>
       <c r="H12" t="n">
-        <v>44640.405</v>
+        <v>212759.23</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         <v>2025</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>48863.5</v>
+        <v>200710.87</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         <v>2020</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="H14" t="n">
-        <v>181882.07</v>
+        <v>181207.24</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.214</v>
       </c>
       <c r="H15" t="n">
-        <v>57215.62</v>
+        <v>312319.39</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         <v>2022</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.129</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86653.8</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         <v>2023</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0.231</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212314.56</v>
       </c>
     </row>
     <row r="18">
@@ -933,50 +933,50 @@
         <v>2024</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
       <c r="F18" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.333</v>
+        <v>0.167</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>252847.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.286</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94455.89999999999</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.25</v>
+        <v>0.833</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>85338.3</v>
+        <v>321117.01</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.667</v>
+        <v>0.444</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
-        <v>219942.27</v>
+        <v>245780.63</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1042,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.222</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1.286</v>
+        <v>0.143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144597.28</v>
       </c>
     </row>
     <row r="23">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.533</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>367107.2</v>
       </c>
     </row>
     <row r="24">
@@ -1098,53 +1098,53 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.286</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>282077.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>84654.45</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.375</v>
+        <v>0.037</v>
       </c>
       <c r="H26" t="n">
-        <v>79033.5</v>
+        <v>50246.76</v>
       </c>
     </row>
     <row r="27">
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="G27" t="n">
-        <v>2.333</v>
+        <v>0.146</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>288033.31</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2</v>
+        <v>0.538</v>
       </c>
       <c r="G28" t="n">
-        <v>1.667</v>
+        <v>0.325</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>456577.69</v>
       </c>
     </row>
     <row r="29">
@@ -1238,27 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>349447.61</v>
       </c>
     </row>
     <row r="30">
@@ -1268,333 +1266,53 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.233</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>295077.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.111</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>215528.84</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.167</v>
-      </c>
-      <c r="H36" t="n">
-        <v>243894.36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
+        <v>86167.2</v>
       </c>
     </row>
   </sheetData>
